--- a/apps/load_data/2018/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/11/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY1118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY1118\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E74BB9-F5A5-4134-B9A5-07722A585B90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE4B3E3-38EF-453B-ADA2-B03A248B2C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$290</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$288</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11315" uniqueCount="2731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11293" uniqueCount="2728">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6373,9 +6374,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    126103    1261031081    326625    3266251082    175875    1758752001         0     424612006     44900     449002026    324745    3247452027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -7699,9 +7697,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8186,9 +8181,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -8708,7 +8700,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8716,6 +8708,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9073,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A289" sqref="A289:XFD290"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB293" sqref="AB293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45104,12 +45097,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>103</v>
       </c>
@@ -45174,10 +45162,10 @@
         <v>110</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2117</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2118</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>113</v>
@@ -45189,7 +45177,7 @@
         <v>152</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>117</v>
@@ -45210,13 +45198,13 @@
         <v>98</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2121</v>
-      </c>
-      <c r="CE208" s="1" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="209" spans="1:83" x14ac:dyDescent="0.25">
@@ -45251,13 +45239,13 @@
         <v>93</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2124</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2125</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>97</v>
@@ -45289,12 +45277,7 @@
       <c r="AB209" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -45341,7 +45324,7 @@
         <v>98</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BB209" s="1">
         <v>11</v>
@@ -45359,10 +45342,10 @@
         <v>110</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2127</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2128</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>113</v>
@@ -45374,13 +45357,13 @@
         <v>99</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="BS209" s="3">
         <v>36949</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>117</v>
@@ -45404,13 +45387,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="CD209" s="1" t="s">
         <v>1764</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45445,13 +45428,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2134</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2135</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45483,12 +45466,7 @@
       <c r="AB210" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -45535,7 +45513,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="BB210" s="1">
         <v>11</v>
@@ -45556,10 +45534,10 @@
         <v>110</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2137</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2138</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>113</v>
@@ -45571,13 +45549,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="BS210" s="3">
         <v>36825</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>117</v>
@@ -45601,13 +45579,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2142</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45642,13 +45620,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2145</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2146</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45677,12 +45655,7 @@
       <c r="AA211" s="1">
         <v>0</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45732,7 +45705,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="BB211" s="1">
         <v>11</v>
@@ -45750,10 +45723,10 @@
         <v>110</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2148</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2149</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>113</v>
@@ -45762,7 +45735,7 @@
         <v>102</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>117</v>
@@ -45780,13 +45753,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45821,13 +45794,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2155</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45856,12 +45829,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -45911,7 +45879,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="BB212" s="1">
         <v>11</v>
@@ -45929,7 +45897,7 @@
         <v>110</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>770</v>
@@ -45941,7 +45909,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>117</v>
@@ -45962,10 +45930,10 @@
         <v>633</v>
       </c>
       <c r="CD212" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="CE212" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46000,13 +45968,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2161</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2162</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2163</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -46035,12 +46003,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -46090,7 +46053,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BB213" s="1">
         <v>11</v>
@@ -46108,7 +46071,7 @@
         <v>110</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>564</v>
@@ -46120,7 +46083,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>117</v>
@@ -46138,13 +46101,13 @@
         <v>98</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="CD213" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="CD213" s="1" t="s">
-        <v>2167</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46179,13 +46142,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2171</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46220,12 +46183,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46272,7 +46230,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BB214" s="1">
         <v>11</v>
@@ -46281,7 +46239,7 @@
         <v>18</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>108</v>
@@ -46293,7 +46251,7 @@
         <v>110</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>422</v>
@@ -46308,13 +46266,13 @@
         <v>114</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BS214" s="3">
         <v>35243</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>117</v>
@@ -46332,13 +46290,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="CD214" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="CD214" s="1" t="s">
+      <c r="CE214" s="1" t="s">
         <v>2178</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46373,13 +46331,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2182</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46408,12 +46366,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -46463,7 +46416,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BB215" s="1">
         <v>11</v>
@@ -46481,7 +46434,7 @@
         <v>110</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>564</v>
@@ -46493,7 +46446,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>117</v>
@@ -46511,13 +46464,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2188</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46552,13 +46505,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2191</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46587,12 +46540,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46642,7 +46590,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="BB216" s="1">
         <v>11</v>
@@ -46660,7 +46608,7 @@
         <v>110</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>564</v>
@@ -46675,7 +46623,7 @@
         <v>152</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>117</v>
@@ -46693,13 +46641,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2195</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2196</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46734,13 +46682,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46769,12 +46717,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -46821,7 +46764,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BB217" s="1">
         <v>11</v>
@@ -46830,7 +46773,7 @@
         <v>18</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>108</v>
@@ -46842,10 +46785,10 @@
         <v>110</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2204</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>113</v>
@@ -46857,13 +46800,13 @@
         <v>211</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BS217" s="3">
         <v>34307</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>117</v>
@@ -46881,13 +46824,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>414</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46922,13 +46865,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2211</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -46960,12 +46903,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -47015,7 +46953,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BB218" s="1">
         <v>11</v>
@@ -47036,7 +46974,7 @@
         <v>110</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>770</v>
@@ -47048,7 +46986,7 @@
         <v>102</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>117</v>
@@ -47069,13 +47007,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2215</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2216</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47110,13 +47048,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2220</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47145,12 +47083,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47197,7 +47130,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BB219" s="1">
         <v>11</v>
@@ -47218,10 +47151,10 @@
         <v>110</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2222</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2223</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>113</v>
@@ -47233,13 +47166,13 @@
         <v>114</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BS219" s="3">
         <v>35950</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>117</v>
@@ -47257,13 +47190,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47298,13 +47231,13 @@
         <v>159</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2230</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47355,7 +47288,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="AO220" s="1">
         <v>0</v>
@@ -47400,13 +47333,13 @@
         <v>110</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>117</v>
@@ -47430,10 +47363,10 @@
         <v>2023</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2234</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47468,13 +47401,13 @@
         <v>159</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2238</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47528,7 +47461,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47573,13 +47506,13 @@
         <v>110</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>117</v>
@@ -47600,13 +47533,13 @@
         <v>98</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="CD221" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CE221" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47641,13 +47574,13 @@
         <v>159</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47701,7 +47634,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47746,13 +47679,13 @@
         <v>110</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>117</v>
@@ -47773,13 +47706,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2250</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47814,13 +47747,13 @@
         <v>159</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2253</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2254</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -47916,13 +47849,13 @@
         <v>110</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>117</v>
@@ -47943,10 +47876,10 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="CD223" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="CE223" s="1" t="s">
         <v>199</v>
@@ -47984,13 +47917,13 @@
         <v>159</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2259</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2260</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -48044,7 +47977,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -48089,19 +48022,19 @@
         <v>110</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BW224" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BX224" s="1">
         <v>0</v>
@@ -48119,13 +48052,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.25">
@@ -48160,13 +48093,13 @@
         <v>159</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48217,7 +48150,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48262,13 +48195,13 @@
         <v>110</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>117</v>
@@ -48289,13 +48222,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="CD225" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="CE225" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="CD225" s="1" t="s">
-        <v>2187</v>
-      </c>
-      <c r="CE225" s="1" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48330,10 +48263,10 @@
         <v>93</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>2274</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>222</v>
@@ -48399,7 +48332,7 @@
         <v>16</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BX226" s="1">
         <v>0</v>
@@ -48417,7 +48350,7 @@
         <v>226</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48446,16 +48379,16 @@
         <v>91</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>222</v>
@@ -48524,7 +48457,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>119</v>
@@ -48536,7 +48469,7 @@
         <v>226</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48571,13 +48504,13 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2281</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48655,7 +48588,7 @@
         <v>98</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BB228" s="1">
         <v>11</v>
@@ -48673,7 +48606,7 @@
         <v>110</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>113</v>
@@ -48685,7 +48618,7 @@
         <v>152</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>117</v>
@@ -48703,13 +48636,13 @@
         <v>98</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>414</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -48744,13 +48677,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2290</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48825,7 +48758,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BB229" s="1">
         <v>11</v>
@@ -48843,7 +48776,7 @@
         <v>110</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1644</v>
@@ -48858,13 +48791,13 @@
         <v>211</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BS229" s="3">
         <v>36099</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>117</v>
@@ -48882,13 +48815,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="CD229" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CE229" s="1" t="s">
         <v>2296</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -48923,13 +48856,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2300</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -49004,7 +48937,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BB230" s="1">
         <v>11</v>
@@ -49022,10 +48955,10 @@
         <v>110</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2302</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2303</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>113</v>
@@ -49037,13 +48970,13 @@
         <v>99</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BS230" s="3">
         <v>37735</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>117</v>
@@ -49061,13 +48994,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49102,13 +49035,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49186,7 +49119,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BB231" s="1">
         <v>11</v>
@@ -49204,7 +49137,7 @@
         <v>110</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>770</v>
@@ -49216,7 +49149,7 @@
         <v>102</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>117</v>
@@ -49234,13 +49167,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>797</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49275,13 +49208,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49314,7 +49247,7 @@
         <v>103</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>1700</v>
@@ -49359,7 +49292,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BB232" s="1">
         <v>11</v>
@@ -49377,7 +49310,7 @@
         <v>110</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>113</v>
@@ -49386,7 +49319,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>117</v>
@@ -49407,10 +49340,10 @@
         <v>1425</v>
       </c>
       <c r="CD232" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="CE232" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49445,13 +49378,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2328</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49529,7 +49462,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BB233" s="1">
         <v>11</v>
@@ -49547,10 +49480,10 @@
         <v>110</v>
       </c>
       <c r="BH233" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="BI233" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="BI233" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>113</v>
@@ -49559,7 +49492,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>117</v>
@@ -49583,7 +49516,7 @@
         <v>869</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49618,13 +49551,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49702,7 +49635,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BB234" s="1">
         <v>11</v>
@@ -49720,10 +49653,10 @@
         <v>110</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BI234" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>113</v>
@@ -49732,7 +49665,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>117</v>
@@ -49750,13 +49683,13 @@
         <v>98</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="CD234" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="CD234" s="1" t="s">
+      <c r="CE234" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -49791,13 +49724,13 @@
         <v>159</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -49839,7 +49772,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="AO235" s="1">
         <v>0</v>
@@ -49878,13 +49811,13 @@
         <v>110</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>117</v>
@@ -49902,13 +49835,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>293</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -49943,13 +49876,13 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2353</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -49988,7 +49921,7 @@
         <v>42247</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>103</v>
@@ -50042,7 +49975,7 @@
         <v>18</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BE236" s="1" t="s">
         <v>108</v>
@@ -50054,10 +49987,10 @@
         <v>110</v>
       </c>
       <c r="BH236" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>113</v>
@@ -50069,13 +50002,13 @@
         <v>211</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BS236" s="3">
         <v>36580</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>117</v>
@@ -50096,7 +50029,7 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>283</v>
@@ -50137,13 +50070,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50236,10 +50169,10 @@
         <v>110</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>113</v>
@@ -50251,13 +50184,13 @@
         <v>114</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BS237" s="3">
         <v>37747</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>117</v>
@@ -50281,7 +50214,7 @@
         <v>623</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="238" spans="1:83" x14ac:dyDescent="0.25">
@@ -50316,13 +50249,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2370</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50415,7 +50348,7 @@
         <v>110</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>113</v>
@@ -50424,7 +50357,7 @@
         <v>102</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>117</v>
@@ -50442,13 +50375,13 @@
         <v>98</v>
       </c>
       <c r="CC238" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="CD238" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="CD238" s="1" t="s">
+      <c r="CE238" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50483,13 +50416,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -50582,7 +50515,7 @@
         <v>110</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BI239" s="1" t="s">
         <v>845</v>
@@ -50594,7 +50527,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>117</v>
@@ -50612,13 +50545,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2383</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50653,13 +50586,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2385</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2386</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -50752,10 +50685,10 @@
         <v>110</v>
       </c>
       <c r="BH240" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="BI240" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="BI240" s="1" t="s">
-        <v>2388</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>113</v>
@@ -50767,13 +50700,13 @@
         <v>99</v>
       </c>
       <c r="BR240" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BS240" s="3">
         <v>37334</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>117</v>
@@ -50794,10 +50727,10 @@
         <v>499</v>
       </c>
       <c r="CD240" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CE240" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -50832,13 +50765,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -50931,10 +50864,10 @@
         <v>110</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>113</v>
@@ -50946,13 +50879,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BS241" s="3">
         <v>37904</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>117</v>
@@ -50973,10 +50906,10 @@
         <v>869</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2401</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51011,13 +50944,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -51107,7 +51040,7 @@
         <v>110</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>113</v>
@@ -51119,13 +51052,13 @@
         <v>114</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BS242" s="3">
         <v>36111</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>117</v>
@@ -51143,13 +51076,13 @@
         <v>98</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51184,13 +51117,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51283,7 +51216,7 @@
         <v>110</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>1670</v>
@@ -51298,13 +51231,13 @@
         <v>114</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BS243" s="3">
         <v>37785</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>117</v>
@@ -51322,13 +51255,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="CD243" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="CD243" s="1" t="s">
+      <c r="CE243" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CE243" s="1" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51363,13 +51296,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51462,7 +51395,7 @@
         <v>110</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>113</v>
@@ -51471,7 +51404,7 @@
         <v>102</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>117</v>
@@ -51492,10 +51425,10 @@
         <v>1127</v>
       </c>
       <c r="CD244" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="CE244" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -51530,13 +51463,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -51614,7 +51547,7 @@
         <v>98</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BB245" s="1">
         <v>11</v>
@@ -51632,7 +51565,7 @@
         <v>110</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>113</v>
@@ -51641,7 +51574,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>117</v>
@@ -51659,13 +51592,13 @@
         <v>98</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="CD245" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CE245" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -51700,13 +51633,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -51784,7 +51717,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BB246" s="1">
         <v>11</v>
@@ -51802,7 +51735,7 @@
         <v>110</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BI246" s="1" t="s">
         <v>371</v>
@@ -51814,7 +51747,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>117</v>
@@ -51832,13 +51765,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>999</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -51873,13 +51806,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -51957,7 +51890,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BB247" s="1">
         <v>11</v>
@@ -51975,7 +51908,7 @@
         <v>110</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>113</v>
@@ -51984,7 +51917,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>117</v>
@@ -52005,10 +51938,10 @@
         <v>999</v>
       </c>
       <c r="CD247" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="CE247" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>2449</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52043,13 +51976,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -52124,7 +52057,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BB248" s="1">
         <v>11</v>
@@ -52145,7 +52078,7 @@
         <v>110</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BI248" s="1" t="s">
         <v>371</v>
@@ -52160,13 +52093,13 @@
         <v>211</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BS248" s="3">
         <v>37513</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>117</v>
@@ -52184,13 +52117,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>121</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52225,13 +52158,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -52321,10 +52254,10 @@
         <v>110</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2462</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2463</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>113</v>
@@ -52336,13 +52269,13 @@
         <v>99</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BS249" s="3">
         <v>41024</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>117</v>
@@ -52360,13 +52293,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52401,13 +52334,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -52440,7 +52373,7 @@
         <v>103</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="AH250" s="1" t="s">
         <v>1700</v>
@@ -52464,28 +52397,28 @@
         <v>97</v>
       </c>
       <c r="AQ250" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AR250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY250" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ250" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="AR250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY250" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ250" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="BB250" s="1">
         <v>11</v>
@@ -52503,7 +52436,7 @@
         <v>110</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>1702</v>
@@ -52518,13 +52451,13 @@
         <v>114</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BS250" s="3">
         <v>34808</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>117</v>
@@ -52542,13 +52475,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -52583,13 +52516,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -52664,7 +52597,7 @@
         <v>98</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BB251" s="1">
         <v>11</v>
@@ -52682,10 +52615,10 @@
         <v>110</v>
       </c>
       <c r="BH251" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="BI251" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="BI251" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>113</v>
@@ -52697,13 +52630,13 @@
         <v>99</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BS251" s="3">
         <v>37336</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>117</v>
@@ -52721,13 +52654,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -52762,13 +52695,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -52846,7 +52779,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BB252" s="1">
         <v>11</v>
@@ -52864,7 +52797,7 @@
         <v>110</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BI252" s="1" t="s">
         <v>919</v>
@@ -52876,7 +52809,7 @@
         <v>102</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>117</v>
@@ -52894,13 +52827,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -52935,13 +52868,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -53034,7 +52967,7 @@
         <v>110</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>113</v>
@@ -53043,7 +52976,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>117</v>
@@ -53061,13 +52994,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -53102,13 +53035,13 @@
         <v>159</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -53201,13 +53134,13 @@
         <v>110</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>117</v>
@@ -53225,13 +53158,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53260,7 +53193,7 @@
         <v>91</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>93</v>
@@ -53269,10 +53202,10 @@
         <v>245</v>
       </c>
       <c r="L255" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="M255" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="N255" s="1" t="s">
         <v>247</v>
@@ -53302,7 +53235,7 @@
         <v>42582</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>103</v>
@@ -53353,10 +53286,10 @@
         <v>248</v>
       </c>
       <c r="BH255" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="BI255" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="BI255" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>113</v>
@@ -53412,7 +53345,7 @@
         <v>123</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>89</v>
@@ -53430,16 +53363,16 @@
         <v>93</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="M256" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N256" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="Q256" s="3">
         <v>17060</v>
@@ -53472,7 +53405,7 @@
         <v>42628</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -53523,16 +53456,16 @@
         <v>98</v>
       </c>
       <c r="AZ256" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BD256" s="1" t="s">
         <v>224</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>113</v>
@@ -53541,7 +53474,7 @@
         <v>102</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>117</v>
@@ -53565,7 +53498,7 @@
         <v>121</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="257" spans="1:83" x14ac:dyDescent="0.25">
@@ -53582,7 +53515,7 @@
         <v>123</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>98</v>
@@ -53594,22 +53527,22 @@
         <v>91</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="Q257" s="3">
         <v>26864</v>
@@ -53639,7 +53572,7 @@
         <v>42735</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -53690,7 +53623,7 @@
         <v>99</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>113</v>
@@ -53702,13 +53635,13 @@
         <v>211</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BS257" s="3">
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>117</v>
@@ -53729,13 +53662,13 @@
         <v>98</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="CD257" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="CD257" s="1" t="s">
+      <c r="CE257" s="1" t="s">
         <v>2542</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2543</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -53770,10 +53703,10 @@
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="L258" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -53854,7 +53787,7 @@
         <v>226</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -53889,16 +53822,16 @@
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="Q259" s="3">
         <v>25379</v>
@@ -53928,7 +53861,7 @@
         <v>39800</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>232</v>
@@ -53979,7 +53912,7 @@
         <v>99</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>113</v>
@@ -53991,13 +53924,13 @@
         <v>222</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BS259" s="3">
         <v>35915</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>117</v>
@@ -54012,7 +53945,7 @@
         <v>233</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>119</v>
@@ -54027,7 +53960,7 @@
         <v>425</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -54062,13 +53995,13 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="N260" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>97</v>
@@ -54103,12 +54036,7 @@
       <c r="AA260" s="1">
         <v>0</v>
       </c>
-      <c r="AC260" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD260" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC260" s="3"/>
       <c r="AF260" s="1" t="s">
         <v>103</v>
       </c>
@@ -54158,7 +54086,7 @@
         <v>98</v>
       </c>
       <c r="AZ260" s="1" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="BB260" s="1">
         <v>11</v>
@@ -54179,7 +54107,7 @@
         <v>110</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="BI260" s="1" t="s">
         <v>1047</v>
@@ -54191,7 +54119,7 @@
         <v>102</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>117</v>
@@ -54215,10 +54143,10 @@
         <v>1038</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -54253,10 +54181,10 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>97</v>
@@ -54337,7 +54265,7 @@
         <v>226</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
@@ -54372,16 +54300,16 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>2567</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="Q262" s="3">
         <v>17470</v>
@@ -54411,7 +54339,7 @@
         <v>43100</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>103</v>
@@ -54462,7 +54390,7 @@
         <v>98</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>113</v>
@@ -54471,7 +54399,7 @@
         <v>102</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>117</v>
@@ -54486,7 +54414,7 @@
         <v>97</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>119</v>
@@ -54495,13 +54423,13 @@
         <v>98</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="CE262" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>2572</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>2573</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -54536,7 +54464,7 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="L263" s="1" t="s">
         <v>2094</v>
@@ -54655,16 +54583,16 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N264" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>2576</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="Q264" s="3">
         <v>23356</v>
@@ -54691,7 +54619,7 @@
         <v>43105</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>103</v>
@@ -54739,7 +54667,7 @@
         <v>98</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>113</v>
@@ -54751,13 +54679,13 @@
         <v>99</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="BS264" s="3">
         <v>34412</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>117</v>
@@ -54775,13 +54703,13 @@
         <v>98</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>2103</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="265" spans="1:83" x14ac:dyDescent="0.25">
@@ -54816,13 +54744,13 @@
         <v>159</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>2585</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2586</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>97</v>
@@ -54918,13 +54846,13 @@
         <v>110</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>117</v>
@@ -54942,13 +54870,13 @@
         <v>98</v>
       </c>
       <c r="CC265" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="CD265" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="CE265" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="CD265" s="1" t="s">
-        <v>2590</v>
-      </c>
-      <c r="CE265" s="1" t="s">
-        <v>2591</v>
       </c>
     </row>
     <row r="266" spans="1:83" x14ac:dyDescent="0.25">
@@ -54983,10 +54911,10 @@
         <v>93</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>97</v>
@@ -55067,7 +54995,7 @@
         <v>226</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="267" spans="1:83" x14ac:dyDescent="0.25">
@@ -55102,16 +55030,16 @@
         <v>93</v>
       </c>
       <c r="K267" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N267" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>2595</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="Q267" s="3">
         <v>17726</v>
@@ -55144,7 +55072,7 @@
         <v>43312</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>232</v>
@@ -55195,10 +55123,10 @@
         <v>98</v>
       </c>
       <c r="AZ267" s="1" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>113</v>
@@ -55207,7 +55135,7 @@
         <v>102</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>117</v>
@@ -55225,10 +55153,10 @@
         <v>98</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>817</v>
@@ -55266,16 +55194,16 @@
         <v>93</v>
       </c>
       <c r="K268" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N268" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="L268" s="1" t="s">
-        <v>2603</v>
-      </c>
-      <c r="M268" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="Q268" s="3">
         <v>22645</v>
@@ -55302,7 +55230,7 @@
         <v>43298</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>103</v>
@@ -55350,10 +55278,10 @@
         <v>98</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="BI268" s="1" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>113</v>
@@ -55362,13 +55290,13 @@
         <v>99</v>
       </c>
       <c r="BR268" s="1" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="BS268" s="3">
         <v>35209</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>117</v>
@@ -55389,10 +55317,10 @@
         <v>1484</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="269" spans="1:83" x14ac:dyDescent="0.25">
@@ -55427,16 +55355,16 @@
         <v>93</v>
       </c>
       <c r="K269" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N269" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>2612</v>
-      </c>
-      <c r="M269" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="Q269" s="3">
         <v>17041</v>
@@ -55463,7 +55391,7 @@
         <v>42735</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>103</v>
@@ -55514,7 +55442,7 @@
         <v>98</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>113</v>
@@ -55523,7 +55451,7 @@
         <v>102</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>117</v>
@@ -55544,13 +55472,13 @@
         <v>98</v>
       </c>
       <c r="CC269" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="CD269" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="CE269" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="CD269" s="1" t="s">
-        <v>2617</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="270" spans="1:83" x14ac:dyDescent="0.25">
@@ -55585,10 +55513,10 @@
         <v>93</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>97</v>
@@ -55669,7 +55597,7 @@
         <v>226</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="271" spans="1:83" x14ac:dyDescent="0.25">
@@ -55704,10 +55632,10 @@
         <v>93</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>97</v>
@@ -55788,7 +55716,7 @@
         <v>226</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="272" spans="1:83" x14ac:dyDescent="0.25">
@@ -55823,10 +55751,10 @@
         <v>93</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>97</v>
@@ -55907,7 +55835,7 @@
         <v>226</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="273" spans="1:83" x14ac:dyDescent="0.25">
@@ -55942,10 +55870,10 @@
         <v>93</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>97</v>
@@ -56026,7 +55954,7 @@
         <v>226</v>
       </c>
       <c r="CE273" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="274" spans="1:83" x14ac:dyDescent="0.25">
@@ -56061,10 +55989,10 @@
         <v>93</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>97</v>
@@ -56145,7 +56073,7 @@
         <v>226</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="275" spans="1:83" x14ac:dyDescent="0.25">
@@ -56180,10 +56108,10 @@
         <v>93</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>97</v>
@@ -56264,7 +56192,7 @@
         <v>226</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="276" spans="1:83" x14ac:dyDescent="0.25">
@@ -56299,10 +56227,10 @@
         <v>93</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>97</v>
@@ -56383,7 +56311,7 @@
         <v>226</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="277" spans="1:83" x14ac:dyDescent="0.25">
@@ -56418,10 +56346,10 @@
         <v>93</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>97</v>
@@ -56502,7 +56430,7 @@
         <v>226</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="278" spans="1:83" x14ac:dyDescent="0.25">
@@ -56537,22 +56465,22 @@
         <v>159</v>
       </c>
       <c r="K278" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="N278" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="L278" s="1" t="s">
+      <c r="O278" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P278" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q278" t="s">
         <v>2636</v>
-      </c>
-      <c r="N278" s="1" t="s">
-        <v>2637</v>
-      </c>
-      <c r="O278" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P278" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q278" t="s">
-        <v>2638</v>
       </c>
       <c r="R278" s="1" t="s">
         <v>129</v>
@@ -56594,7 +56522,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -56636,13 +56564,13 @@
         <v>110</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>117</v>
@@ -56660,13 +56588,13 @@
         <v>98</v>
       </c>
       <c r="CC278" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="CD278" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="CE278" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="CD278" s="1" t="s">
-        <v>2643</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>2644</v>
       </c>
     </row>
     <row r="279" spans="1:83" x14ac:dyDescent="0.25">
@@ -56701,16 +56629,16 @@
         <v>93</v>
       </c>
       <c r="K279" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N279" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="L279" s="1" t="s">
-        <v>2646</v>
-      </c>
-      <c r="M279" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N279" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="Q279" s="3">
         <v>30147</v>
@@ -56733,12 +56661,7 @@
       <c r="AA279" s="1">
         <v>0</v>
       </c>
-      <c r="AC279" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD279" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC279" s="3"/>
       <c r="AF279" s="1" t="s">
         <v>103</v>
       </c>
@@ -56788,7 +56711,7 @@
         <v>99</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>113</v>
@@ -56800,13 +56723,13 @@
         <v>99</v>
       </c>
       <c r="BR279" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="BS279" s="3">
         <v>37124</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>117</v>
@@ -56824,13 +56747,13 @@
         <v>98</v>
       </c>
       <c r="CC279" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="CD279" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="280" spans="1:83" x14ac:dyDescent="0.25">
@@ -56865,16 +56788,16 @@
         <v>93</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>97</v>
@@ -56903,12 +56826,7 @@
       <c r="AA280" s="1">
         <v>0</v>
       </c>
-      <c r="AC280" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD280" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC280" s="3"/>
       <c r="AF280" s="1" t="s">
         <v>103</v>
       </c>
@@ -56970,7 +56888,7 @@
         <v>110</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>113</v>
@@ -56982,13 +56900,13 @@
         <v>99</v>
       </c>
       <c r="BR280" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="BS280" s="3">
         <v>36306</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>117</v>
@@ -57006,13 +56924,13 @@
         <v>98</v>
       </c>
       <c r="CC280" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="CD280" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CE280" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="CD280" s="1" t="s">
-        <v>2660</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>2661</v>
       </c>
     </row>
     <row r="281" spans="1:83" x14ac:dyDescent="0.25">
@@ -57047,16 +56965,16 @@
         <v>93</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>97</v>
@@ -57085,12 +57003,7 @@
       <c r="AA281" s="1">
         <v>0</v>
       </c>
-      <c r="AC281" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD281" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC281" s="3"/>
       <c r="AF281" s="1" t="s">
         <v>103</v>
       </c>
@@ -57155,7 +57068,7 @@
         <v>110</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>113</v>
@@ -57164,7 +57077,7 @@
         <v>102</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>117</v>
@@ -57182,13 +57095,13 @@
         <v>98</v>
       </c>
       <c r="CC281" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="CD281" s="1" t="s">
         <v>121</v>
       </c>
       <c r="CE281" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="282" spans="1:83" x14ac:dyDescent="0.25">
@@ -57223,16 +57136,16 @@
         <v>93</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>97</v>
@@ -57261,12 +57174,7 @@
       <c r="AA282" s="1">
         <v>0</v>
       </c>
-      <c r="AC282" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD282" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC282" s="3"/>
       <c r="AF282" s="1" t="s">
         <v>103</v>
       </c>
@@ -57331,7 +57239,7 @@
         <v>110</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="BI282" s="1" t="s">
         <v>371</v>
@@ -57346,13 +57254,13 @@
         <v>99</v>
       </c>
       <c r="BR282" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="BS282" s="3">
         <v>38234</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>117</v>
@@ -57370,13 +57278,13 @@
         <v>98</v>
       </c>
       <c r="CC282" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CD282" s="1" t="s">
         <v>910</v>
       </c>
       <c r="CE282" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="283" spans="1:83" x14ac:dyDescent="0.25">
@@ -57411,16 +57319,16 @@
         <v>93</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>97</v>
@@ -57449,12 +57357,7 @@
       <c r="AA283" s="1">
         <v>0</v>
       </c>
-      <c r="AC283" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD283" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC283" s="3"/>
       <c r="AF283" s="1" t="s">
         <v>103</v>
       </c>
@@ -57519,7 +57422,7 @@
         <v>110</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="BI283" s="1" t="s">
         <v>919</v>
@@ -57531,7 +57434,7 @@
         <v>102</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>117</v>
@@ -57549,13 +57452,13 @@
         <v>98</v>
       </c>
       <c r="CC283" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="CD283" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="CE283" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="CD283" s="1" t="s">
-        <v>2683</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="284" spans="1:83" x14ac:dyDescent="0.25">
@@ -57590,16 +57493,16 @@
         <v>93</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>97</v>
@@ -57628,12 +57531,7 @@
       <c r="AA284" s="1">
         <v>0</v>
       </c>
-      <c r="AC284" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD284" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC284" s="3"/>
       <c r="AF284" s="1" t="s">
         <v>103</v>
       </c>
@@ -57698,7 +57596,7 @@
         <v>110</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="BI284" s="1" t="s">
         <v>919</v>
@@ -57710,7 +57608,7 @@
         <v>102</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>117</v>
@@ -57728,13 +57626,13 @@
         <v>98</v>
       </c>
       <c r="CC284" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="CD284" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="CE284" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="CD284" s="1" t="s">
-        <v>2691</v>
-      </c>
-      <c r="CE284" s="1" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="285" spans="1:83" x14ac:dyDescent="0.25">
@@ -57769,16 +57667,16 @@
         <v>93</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>97</v>
@@ -57807,12 +57705,7 @@
       <c r="AA285" s="1">
         <v>0</v>
       </c>
-      <c r="AC285" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD285" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC285" s="3"/>
       <c r="AF285" s="1" t="s">
         <v>103</v>
       </c>
@@ -57874,7 +57767,7 @@
         <v>110</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="BI285" s="1" t="s">
         <v>845</v>
@@ -57889,13 +57782,13 @@
         <v>211</v>
       </c>
       <c r="BR285" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="BS285" s="3">
         <v>37069</v>
       </c>
       <c r="BT285" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="BU285" s="1" t="s">
         <v>117</v>
@@ -57916,10 +57809,10 @@
         <v>696</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="CE285" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="286" spans="1:83" x14ac:dyDescent="0.25">
@@ -57954,16 +57847,16 @@
         <v>93</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>97</v>
@@ -57992,12 +57885,7 @@
       <c r="AA286" s="1">
         <v>0</v>
       </c>
-      <c r="AC286" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD286" s="1" t="s">
-        <v>2558</v>
-      </c>
+      <c r="AC286" s="3"/>
       <c r="AF286" s="1" t="s">
         <v>103</v>
       </c>
@@ -58062,7 +57950,7 @@
         <v>110</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="BI286" s="1" t="s">
         <v>957</v>
@@ -58074,7 +57962,7 @@
         <v>102</v>
       </c>
       <c r="BT286" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="BU286" s="1" t="s">
         <v>117</v>
@@ -58092,13 +57980,13 @@
         <v>98</v>
       </c>
       <c r="CC286" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="CD286" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="CE286" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="CD286" s="1" t="s">
-        <v>2707</v>
-      </c>
-      <c r="CE286" s="1" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="287" spans="1:83" x14ac:dyDescent="0.25">
@@ -58133,16 +58021,16 @@
         <v>93</v>
       </c>
       <c r="K287" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N287" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="L287" s="1" t="s">
-        <v>2710</v>
-      </c>
-      <c r="M287" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N287" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="Q287" s="3">
         <v>21523</v>
@@ -58169,7 +58057,7 @@
         <v>43403</v>
       </c>
       <c r="AD287" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="AF287" s="1" t="s">
         <v>103</v>
@@ -58220,10 +58108,10 @@
         <v>98</v>
       </c>
       <c r="AZ287" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="BM287" s="1" t="s">
         <v>113</v>
@@ -58232,7 +58120,7 @@
         <v>102</v>
       </c>
       <c r="BT287" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="BU287" s="1" t="s">
         <v>117</v>
@@ -58250,13 +58138,13 @@
         <v>98</v>
       </c>
       <c r="CC287" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="CD287" s="1" t="s">
         <v>1772</v>
       </c>
       <c r="CE287" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="288" spans="1:83" x14ac:dyDescent="0.25">
@@ -58291,16 +58179,16 @@
         <v>93</v>
       </c>
       <c r="K288" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N288" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="L288" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="M288" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="N288" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="Q288" s="3">
         <v>26843</v>
@@ -58323,12 +58211,7 @@
       <c r="AA288" s="1">
         <v>0</v>
       </c>
-      <c r="AC288" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD288" s="1" t="s">
-        <v>2721</v>
-      </c>
+      <c r="AC288" s="3"/>
       <c r="AF288" s="1" t="s">
         <v>103</v>
       </c>
@@ -58375,16 +58258,16 @@
         <v>98</v>
       </c>
       <c r="AZ288" s="1" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="BD288" s="1" t="s">
         <v>328</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="BI288" s="1" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="BM288" s="1" t="s">
         <v>113</v>
@@ -58396,13 +58279,13 @@
         <v>211</v>
       </c>
       <c r="BR288" s="1" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="BS288" s="3">
         <v>35125</v>
       </c>
       <c r="BT288" s="1" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="BU288" s="1" t="s">
         <v>117</v>
@@ -58420,13 +58303,13 @@
         <v>98</v>
       </c>
       <c r="CC288" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="CD288" s="1" t="s">
         <v>120</v>
       </c>
       <c r="CE288" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="289" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -58461,14 +58344,14 @@
         <v>93</v>
       </c>
       <c r="K289" s="4" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="L289" s="4" t="s">
         <v>327</v>
       </c>
       <c r="M289" s="4"/>
       <c r="N289" s="4" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="O289" s="4" t="s">
         <v>97</v>
@@ -58476,13 +58359,13 @@
       <c r="P289" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q289" s="5">
+      <c r="Q289" s="7">
         <v>26843</v>
       </c>
       <c r="R289" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S289" s="5">
+      <c r="S289" s="7">
         <v>34699</v>
       </c>
       <c r="T289" s="4" t="s">
@@ -58555,7 +58438,7 @@
         <v>98</v>
       </c>
       <c r="AZ289" s="4" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="BA289" s="4" t="s">
         <v>266</v>
@@ -58579,10 +58462,10 @@
         <v>110</v>
       </c>
       <c r="BH289" s="4" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="BI289" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BJ289" s="4"/>
       <c r="BK289" s="4"/>
@@ -58597,13 +58480,13 @@
       <c r="BP289" s="4"/>
       <c r="BQ289" s="4"/>
       <c r="BR289" s="4" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="BS289" s="5">
         <v>35125</v>
       </c>
       <c r="BT289" s="4" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="BU289" s="4" t="s">
         <v>117</v>
@@ -58624,13 +58507,13 @@
         <v>98</v>
       </c>
       <c r="CC289" s="4" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="CD289" s="4" t="s">
         <v>120</v>
       </c>
       <c r="CE289" s="4" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="CF289" s="4"/>
     </row>
@@ -58683,13 +58566,13 @@
       <c r="P290" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q290" s="5">
+      <c r="Q290" s="7">
         <v>27413</v>
       </c>
       <c r="R290" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S290" s="5">
+      <c r="S290" s="7">
         <v>38322</v>
       </c>
       <c r="T290" s="4" t="s">
@@ -58788,7 +58671,7 @@
         <v>110</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -58839,6 +58722,7 @@
       <c r="CF290" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF290" xr:uid="{623CF864-A47B-432E-AA1A-E3F47C228687}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>